--- a/codense-salary-sheet-1.xlsx
+++ b/codense-salary-sheet-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajatjain/Desktop/Excel Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE9806D-8272-4C44-8979-6FA14227E09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A616DAE-E7D0-8C41-BA4F-02FA35B1262B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="&quot;₹&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -135,6 +135,7 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="9.6"/>
       <color rgb="FF374151"/>
       <name val="Arial"/>
@@ -164,9 +165,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -182,10 +183,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,222 +484,221 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>50000</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>60000</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>55000</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>45000</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>70000</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>65000</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>48000</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>52000</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>55000</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>60000</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>52000</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>48000</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>58000</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>54000</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>62000</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>51000</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>58000</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>50000</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>56000</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>53000</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>57000</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
